--- a/GraphTemplate.xlsx
+++ b/GraphTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenp\Code\xmlTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E244083B-871D-4609-B3E1-D66459F77B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7593D49-5AE4-4CFF-ABE8-4E45E23BF579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CTRLQ" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,6 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,12 +800,12 @@
   <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -846,7 +842,7 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="4"/>
     </row>
-    <row r="2" spans="1:35" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -883,7 +879,7 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
     </row>
-    <row r="3" spans="1:35" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -936,17 +932,17 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>12212</v>
       </c>
@@ -954,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>12</v>
       </c>
@@ -962,7 +958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -970,7 +966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>12</v>
       </c>
@@ -978,7 +974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>12</v>
       </c>

--- a/GraphTemplate.xlsx
+++ b/GraphTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenp\Code\xmlTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764C276B-B649-4C72-99C4-53625265055E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D03C72-3583-4558-9CA9-520AE43AB989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>שם הקבלן</t>
   </si>
@@ -60,33 +60,6 @@
   </si>
   <si>
     <t>&lt;TABLE&gt;</t>
-  </si>
-  <si>
-    <t>כותרת 1</t>
-  </si>
-  <si>
-    <t>שורה 1</t>
-  </si>
-  <si>
-    <t>שורה 2</t>
-  </si>
-  <si>
-    <t>שורה 3</t>
-  </si>
-  <si>
-    <t>שורה 4</t>
-  </si>
-  <si>
-    <t>שורה 5</t>
-  </si>
-  <si>
-    <t>כותרת 2</t>
-  </si>
-  <si>
-    <t>כותרת 3</t>
-  </si>
-  <si>
-    <t>כותרת 4</t>
   </si>
 </sst>
 </file>
@@ -147,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -419,11 +392,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -492,6 +480,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,10 +943,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152CE17E-9EAB-453C-A30D-8D415FCB995D}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -969,63 +958,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A1" s="7"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>